--- a/Data/Processed/Angiosperms/missing_powo_ipni/Myrtaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Myrtaceae.xlsx
@@ -5217,7 +5217,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -9793,7 +9793,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12059,7 +12059,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -13500,7 +13500,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -13973,7 +13973,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -15205,7 +15205,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -19462,7 +19462,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -19715,7 +19715,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -19858,7 +19858,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -20749,7 +20749,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -22982,7 +22982,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -23235,7 +23235,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -25633,7 +25633,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -28009,7 +28009,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -28757,7 +28757,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36435,7 +36435,7 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -37073,7 +37073,7 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -39636,7 +39636,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -41154,7 +41154,7 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -42727,7 +42727,7 @@
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -42815,7 +42815,7 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -52748,7 +52748,7 @@
       </c>
       <c r="G933" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -54981,7 +54981,7 @@
       </c>
       <c r="G973" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -58479,7 +58479,7 @@
       </c>
       <c r="G1036" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
@@ -58677,7 +58677,7 @@
       </c>
       <c r="G1039" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
@@ -65640,7 +65640,7 @@
       </c>
       <c r="G1165" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1165" t="inlineStr">
@@ -65650,7 +65650,7 @@
       </c>
       <c r="I1165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 205. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 205. 1908</t>
         </is>
       </c>
       <c r="J1165" t="b">
@@ -65718,7 +65718,7 @@
       </c>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr">
@@ -65728,7 +65728,7 @@
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nat. Pflanzenfam. [Engler &amp; Prantl] 3, Abt. 7: 74. 1893 </t>
+          <t>Nat. Pflanzenfam. [Engler &amp; Prantl] 3, Abt. 7: 74. 1893</t>
         </is>
       </c>
       <c r="J1166" t="b">
@@ -65796,7 +65796,7 @@
       </c>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1167" t="inlineStr">
@@ -65806,7 +65806,7 @@
       </c>
       <c r="I1167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mem. New York Bot. Gard. 18(2): 225. 1969 </t>
+          <t>Mem. New York Bot. Gard. 18(2): 225. 1969</t>
         </is>
       </c>
       <c r="J1167" t="b">
@@ -65874,7 +65874,7 @@
       </c>
       <c r="G1168" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1168" t="inlineStr">
@@ -65884,7 +65884,7 @@
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loefgrenia no. 67: 18. 1975 </t>
+          <t>Loefgrenia no. 67: 18. 1975</t>
         </is>
       </c>
       <c r="J1168" t="b">
@@ -65952,7 +65952,7 @@
       </c>
       <c r="G1169" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1169" t="inlineStr">
@@ -65962,7 +65962,7 @@
       </c>
       <c r="I1169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fieldiana, Bot. 29: 182. 1956 </t>
+          <t>Fieldiana, Bot. 29: 182. 1956</t>
         </is>
       </c>
       <c r="J1169" t="b">
@@ -66030,7 +66030,7 @@
       </c>
       <c r="G1170" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1170" t="inlineStr">
@@ -66040,7 +66040,7 @@
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 14(1): 449. 1857 [15 May 1857] </t>
+          <t>Fl. Bras. (Martius) 14(1): 449. 1857 [15 May 1857]</t>
         </is>
       </c>
       <c r="J1170" t="b">
@@ -66108,7 +66108,7 @@
       </c>
       <c r="G1171" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1171" t="inlineStr">
@@ -66118,7 +66118,7 @@
       </c>
       <c r="I1171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revista Mus. Paul. Univ. Sao Paulo 10: 156, pl. 1918 </t>
+          <t>Revista Mus. Paul. Univ. Sao Paulo 10: 156, pl. 1918</t>
         </is>
       </c>
       <c r="J1171" t="b">
@@ -66186,7 +66186,7 @@
       </c>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
@@ -66196,7 +66196,7 @@
       </c>
       <c r="I1172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 227. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 227. 1908</t>
         </is>
       </c>
       <c r="J1172" t="b">
@@ -66264,7 +66264,7 @@
       </c>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
@@ -66342,7 +66342,7 @@
       </c>
       <c r="G1174" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1174" t="inlineStr">
@@ -66352,7 +66352,7 @@
       </c>
       <c r="I1174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Ilustr. Catarin. MIRT-SUPL: 18 (-22), figs. 1977 </t>
+          <t>Fl. Ilustr. Catarin. MIRT-SUPL: 18 (-22), figs. 1977</t>
         </is>
       </c>
       <c r="J1174" t="b">
@@ -66420,7 +66420,7 @@
       </c>
       <c r="G1175" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1175" t="inlineStr">
@@ -66498,7 +66498,7 @@
       </c>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1176" t="inlineStr">
@@ -66508,7 +66508,7 @@
       </c>
       <c r="I1176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 14(1): 583. 1859 [15 Jan 1859] </t>
+          <t>Fl. Bras. (Martius) 14(1): 583. 1859 [15 Jan 1859]</t>
         </is>
       </c>
       <c r="J1176" t="b">
@@ -66576,7 +66576,7 @@
       </c>
       <c r="G1177" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1177" t="inlineStr">
@@ -66586,7 +66586,7 @@
       </c>
       <c r="I1177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enum. Myrt. Bras. 133, pl. 18, fig. d. 1893 </t>
+          <t>Enum. Myrt. Bras. 133, pl. 18, fig. d. 1893</t>
         </is>
       </c>
       <c r="J1177" t="b">
@@ -66654,7 +66654,7 @@
       </c>
       <c r="G1178" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1178" t="inlineStr">
@@ -66664,7 +66664,7 @@
       </c>
       <c r="I1178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 231. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 231. 1908</t>
         </is>
       </c>
       <c r="J1178" t="b">
@@ -66732,7 +66732,7 @@
       </c>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1179" t="inlineStr">
@@ -66742,7 +66742,7 @@
       </c>
       <c r="I1179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 235. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 235. 1908</t>
         </is>
       </c>
       <c r="J1179" t="b">
@@ -66810,7 +66810,7 @@
       </c>
       <c r="G1180" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1180" t="inlineStr">
@@ -66820,7 +66820,7 @@
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. Merid. (A. St.-Hil.). 2: 354. 1832 </t>
+          <t>Fl. Bras. Merid. (A. St.-Hil.). 2: 354. 1832</t>
         </is>
       </c>
       <c r="J1180" t="b">
@@ -66888,7 +66888,7 @@
       </c>
       <c r="G1181" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1181" t="inlineStr">
@@ -66898,7 +66898,7 @@
       </c>
       <c r="I1181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 233. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 233. 1908</t>
         </is>
       </c>
       <c r="J1181" t="b">
@@ -66966,7 +66966,7 @@
       </c>
       <c r="G1182" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1182" t="inlineStr">
@@ -67044,7 +67044,7 @@
       </c>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1183" t="inlineStr">
@@ -67054,7 +67054,7 @@
       </c>
       <c r="I1183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Myrt. Paraguay 3, pl. 4. 1903 </t>
+          <t>Myrt. Paraguay 3, pl. 4. 1903</t>
         </is>
       </c>
       <c r="J1183" t="b">
@@ -67122,7 +67122,7 @@
       </c>
       <c r="G1184" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1184" t="inlineStr">
@@ -67132,7 +67132,7 @@
       </c>
       <c r="I1184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lilloa 33: 102, fig. 1972 1971 </t>
+          <t>Lilloa 33: 102, fig. 1972 1971</t>
         </is>
       </c>
       <c r="J1184" t="b">
@@ -67200,7 +67200,7 @@
       </c>
       <c r="G1185" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1185" t="inlineStr">
@@ -67210,7 +67210,7 @@
       </c>
       <c r="I1185" t="inlineStr">
         <is>
-          <t xml:space="preserve">in H. Lorenzi, Árvores Brasileiras 259 (1992), without latin descr. or type. </t>
+          <t>in H. Lorenzi, Árvores Brasileiras 259 (1992), without latin descr. or type.</t>
         </is>
       </c>
       <c r="J1185" t="b">
@@ -67278,7 +67278,7 @@
       </c>
       <c r="G1186" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1186" t="inlineStr">
@@ -67288,7 +67288,7 @@
       </c>
       <c r="I1186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loefgrenia no. 67: 21 (-22). 1975 </t>
+          <t>Loefgrenia no. 67: 21 (-22). 1975</t>
         </is>
       </c>
       <c r="J1186" t="b">
@@ -67356,7 +67356,7 @@
       </c>
       <c r="G1187" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1187" t="inlineStr">
@@ -67366,7 +67366,7 @@
       </c>
       <c r="I1187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 228. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 228. 1908</t>
         </is>
       </c>
       <c r="J1187" t="b">
@@ -67434,7 +67434,7 @@
       </c>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1188" t="inlineStr">
@@ -67444,7 +67444,7 @@
       </c>
       <c r="I1188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enum. Myrt. Bras. 185. 1893 </t>
+          <t>Enum. Myrt. Bras. 185. 1893</t>
         </is>
       </c>
       <c r="J1188" t="b">
@@ -67512,7 +67512,7 @@
       </c>
       <c r="G1189" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1189" t="inlineStr">
@@ -67522,7 +67522,7 @@
       </c>
       <c r="I1189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 228. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 228. 1908</t>
         </is>
       </c>
       <c r="J1189" t="b">
@@ -67590,7 +67590,7 @@
       </c>
       <c r="G1190" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1190" t="inlineStr">
@@ -67600,7 +67600,7 @@
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enum. Myrt. Bras. 137, pl. 21, fig. c. 1893 </t>
+          <t>Enum. Myrt. Bras. 137, pl. 21, fig. c. 1893</t>
         </is>
       </c>
       <c r="J1190" t="b">
@@ -67668,7 +67668,7 @@
       </c>
       <c r="G1191" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1191" t="inlineStr">
@@ -67678,7 +67678,7 @@
       </c>
       <c r="I1191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 230. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 230. 1908</t>
         </is>
       </c>
       <c r="J1191" t="b">
@@ -67746,7 +67746,7 @@
       </c>
       <c r="G1192" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1192" t="inlineStr">
@@ -67824,7 +67824,7 @@
       </c>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1193" t="inlineStr">
@@ -67834,7 +67834,7 @@
       </c>
       <c r="I1193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enum. Myrt. Bras. 151, pl. 21, fig. d. 1893 </t>
+          <t>Enum. Myrt. Bras. 151, pl. 21, fig. d. 1893</t>
         </is>
       </c>
       <c r="J1193" t="b">
@@ -67902,7 +67902,7 @@
       </c>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
@@ -67980,7 +67980,7 @@
       </c>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1195" t="inlineStr">
@@ -67990,7 +67990,7 @@
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 227. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 227. 1908</t>
         </is>
       </c>
       <c r="J1195" t="b">
@@ -68058,7 +68058,7 @@
       </c>
       <c r="G1196" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1196" t="inlineStr">
@@ -68068,7 +68068,7 @@
       </c>
       <c r="I1196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enum. Myrt. Bras. 131, pl. 21, fig. g. 1893 </t>
+          <t>Enum. Myrt. Bras. 131, pl. 21, fig. g. 1893</t>
         </is>
       </c>
       <c r="J1196" t="b">
@@ -68136,7 +68136,7 @@
       </c>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1197" t="inlineStr">
@@ -68146,7 +68146,7 @@
       </c>
       <c r="I1197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enum. Myrt. Bras. 186, pl. 24, fig. a. 1893 </t>
+          <t>Enum. Myrt. Bras. 186, pl. 24, fig. a. 1893</t>
         </is>
       </c>
       <c r="J1197" t="b">
@@ -68214,7 +68214,7 @@
       </c>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1198" t="inlineStr">
@@ -68224,7 +68224,7 @@
       </c>
       <c r="I1198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loefgrenia 78: 2 (1983). </t>
+          <t>Loefgrenia 78: 2 (1983).</t>
         </is>
       </c>
       <c r="J1198" t="b">
@@ -68292,7 +68292,7 @@
       </c>
       <c r="G1199" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1199" t="inlineStr">
@@ -68302,7 +68302,7 @@
       </c>
       <c r="I1199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Ilustr. Catarin. MIRT (Supl.): 30 (-33), fig. 1977 </t>
+          <t>Fl. Ilustr. Catarin. MIRT (Supl.): 30 (-33), fig. 1977</t>
         </is>
       </c>
       <c r="J1199" t="b">
@@ -68370,7 +68370,7 @@
       </c>
       <c r="G1200" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1200" t="inlineStr">
@@ -68380,7 +68380,7 @@
       </c>
       <c r="I1200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loefgrenia no. 67: 17. 1975 </t>
+          <t>Loefgrenia no. 67: 17. 1975</t>
         </is>
       </c>
       <c r="J1200" t="b">
